--- a/biology/Zoologie/Chien_d'élan_suédois/Chien_d'élan_suédois.xlsx
+++ b/biology/Zoologie/Chien_d'élan_suédois/Chien_d'élan_suédois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chien_d%27%C3%A9lan_su%C3%A9dois</t>
+          <t>Chien_d'élan_suédois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le chien d'élan suédois ou jämthund  est une race de chien originaire de Suède. C'est une race de type spitz à la robe grise utilisée comme chien de chasse au gros gibier, notamment l'élan. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chien_d%27%C3%A9lan_su%C3%A9dois</t>
+          <t>Chien_d'élan_suédois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chien d’élan suédois est une race de chien très ancienne qui existe depuis que le nord de la Suède est peuplé. Le chien d’élan suédois était utilisé pour la chasse à l'élan et également pour l'ours et le lynx. La race est d'abord confondue et jugée en exposition canine avec le chien d'élan norvégien gris. Le chien d'élan suédois est reconnu comme une race à part entière en 1946[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chien d’élan suédois est une race de chien très ancienne qui existe depuis que le nord de la Suède est peuplé. Le chien d’élan suédois était utilisé pour la chasse à l'élan et également pour l'ours et le lynx. La race est d'abord confondue et jugée en exposition canine avec le chien d'élan norvégien gris. Le chien d'élan suédois est reconnu comme une race à part entière en 1946.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chien_d%27%C3%A9lan_su%C3%A9dois</t>
+          <t>Chien_d'élan_suédois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chien d'élan suédois est un chien de type spitz de forte constitution, sans être lourd. Le corps est inscriptible dans un carré et ne doit pas donner l’impression d’être long. Attachée haut, la queue de longueur moyenne et d'épaisseur égale est portée enroulée sur ou contre le dos. Le poil est touffu, sans former de franges. La tête est plutôt longue et relativement large entre les oreilles. Les yeux sont de forme légèrement ovale et de couleur brune. Attachées haut, les oreilles pointues sont de longueur légèrement supérieure à leur largeur. La face interne de l'oreille est bien couverte de poils[2].  
-Le poil de couverture est bien couché sans être aplati. Le sous-poil est court, doux et de couleur claire, de préférence crème. La couleur de la robe est le gris : des marques caractéristiques de couleur gris clair ou crème se trouvent sur les faces latérales du museau, sur les joues, la gorge, la poitrine, le ventre, les membres et sous la queue[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chien d'élan suédois est un chien de type spitz de forte constitution, sans être lourd. Le corps est inscriptible dans un carré et ne doit pas donner l’impression d’être long. Attachée haut, la queue de longueur moyenne et d'épaisseur égale est portée enroulée sur ou contre le dos. Le poil est touffu, sans former de franges. La tête est plutôt longue et relativement large entre les oreilles. Les yeux sont de forme légèrement ovale et de couleur brune. Attachées haut, les oreilles pointues sont de longueur légèrement supérieure à leur largeur. La face interne de l'oreille est bien couverte de poils.  
+Le poil de couverture est bien couché sans être aplati. Le sous-poil est court, doux et de couleur claire, de préférence crème. La couleur de la robe est le gris : des marques caractéristiques de couleur gris clair ou crème se trouvent sur les faces latérales du museau, sur les joues, la gorge, la poitrine, le ventre, les membres et sous la queue.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chien_d%27%C3%A9lan_su%C3%A9dois</t>
+          <t>Chien_d'élan_suédois</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Caractère</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le standard FCI décrit le chien d'élan suédois comme courageux, énergique et impassible[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le standard FCI décrit le chien d'élan suédois comme courageux, énergique et impassible.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chien_d%27%C3%A9lan_su%C3%A9dois</t>
+          <t>Chien_d'élan_suédois</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chien d'élan suédois est un chien de chasse spécialisé dans le grand gibier et notamment l'élan. 
 </t>
